--- a/biology/Botanique/Scille_maritime/Scille_maritime.xlsx
+++ b/biology/Botanique/Scille_maritime/Scille_maritime.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Drimia maritima
 Drimia maritima, la Scille maritime ou scille officinale (du grec ancien σκίλλα) est une espèce de plante à fleurs bulbeuse de la famille des Liliaceae selon la classification de Cronquist, ou des Asparagaceae selon la classification APG IV. Ses autres noms communs sont : Squille, urginée maritime, urginée fausse-scille, charpentaire, oignon marin, oignon de mer.
@@ -513,9 +525,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au cours des Thargélies, fêtes qui, dans l'Athènes antique et dans les cités ioniennes, se célébraient en mai en l'honneur d'Apollon, dieu purificateur par excellence, deux pharmakoï parés l'un d'un collier de figues blanches, l'autre d'un collier de figues noires, étaient escortés à travers la ville ; on les frappait à coups de branches de figuier et de tiges de scille, et on les expulsait hors de la cité pour écarter avec eux les souillures dont on les supposait chargés[1]. Elle fait partie des plantes dont la culture est recommandée dans les domaines royaux par Charlemagne dans le capitulaire De Villis (fin du VIIIe siècle ou début du IXe).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au cours des Thargélies, fêtes qui, dans l'Athènes antique et dans les cités ioniennes, se célébraient en mai en l'honneur d'Apollon, dieu purificateur par excellence, deux pharmakoï parés l'un d'un collier de figues blanches, l'autre d'un collier de figues noires, étaient escortés à travers la ville ; on les frappait à coups de branches de figuier et de tiges de scille, et on les expulsait hors de la cité pour écarter avec eux les souillures dont on les supposait chargés. Elle fait partie des plantes dont la culture est recommandée dans les domaines royaux par Charlemagne dans le capitulaire De Villis (fin du VIIIe siècle ou début du IXe).
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Dans l'Antiquité, les scilles maritimes sont dites apotropaïques dans Histoire des plantes[2],[3] du philosophe péripatéticien grec Théophraste. Dans l'éthopée Les Caractères du même auteur, le Superstitieux (Caractère XVI)[4] convoque des prêtresses à qui il demande de le purifier en traçant un cercle autour de lui avec la plante[5],[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dans l'Antiquité, les scilles maritimes sont dites apotropaïques dans Histoire des plantes, du philosophe péripatéticien grec Théophraste. Dans l'éthopée Les Caractères du même auteur, le Superstitieux (Caractère XVI) convoque des prêtresses à qui il demande de le purifier en traçant un cercle autour de lui avec la plante,.
 On utilise un extrait de cette plante comme raticide car comme la digitale, la scille maritime contient un hétéroside cardiotonique, la scillarine, poison violent qui a jadis été utilisé comme cardiotonique (code ATC de la proscillaridine : C01AB01 et C01AB51).
 La plante a aussi une valeur ornementale et on la cultive dans les jardins (dans le nord, elle demande l'abri d'une orangerie pour l'hiver).</t>
         </is>
@@ -576,11 +592,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom scientifique complet (avec auteur) de ce taxon est Drimia maritima (L.) Stearn[7].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Scille maritime[7],[8],[9], oignon marin[9], scille de mer[9], scille officinale[9], urginée fausse-scille[9], urginée maritime[9], urgine scille[9].
-Drimia maritima a pour synonymes[7] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom scientifique complet (avec auteur) de ce taxon est Drimia maritima (L.) Stearn.
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Scille maritime oignon marin, scille de mer, scille officinale, urginée fausse-scille, urginée maritime, urgine scille.
+Drimia maritima a pour synonymes :
 Charybdis anthericoides (Poir.) Véla &amp; Bélair
 Charybdis maritima (L.) Speta
 Ornithogalum anthericoides (Poir.) Link
@@ -628,7 +646,9 @@
           <t>Images</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Inflorescence de scille maritime photographiée à Djerba
@@ -662,9 +682,11 @@
           <t>Liste des variétés et sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (17 mai 2021)[10] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (17 mai 2021) :
 sous-espèce Drimia maritima subsp. maura (Maire) Förther &amp; Podlech
 variété Drimia maritima var. hesperia (Webb &amp; Berthel.) O.Erikss., A. Hansen &amp; Sunding</t>
         </is>
